--- a/processed_CI_test_data/pivots_CI_test_original.xlsx
+++ b/processed_CI_test_data/pivots_CI_test_original.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kwieczorek\PycharmProjects\volatility_trend\processed_CI_test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54963197-7A3C-46CA-9574-3632BAC5B312}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63ED9A5A-C92F-4C4A-8A66-0E38C7F2232E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-48" yWindow="-17304" windowWidth="15516" windowHeight="16152" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15264" yWindow="360" windowWidth="15156" windowHeight="16152" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pivots" sheetId="1" r:id="rId1"/>
@@ -103,12 +103,18 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -123,9 +129,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -430,8 +437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" activeCellId="1" sqref="B23 B26"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -525,38 +532,38 @@
         <v>0.1077554349021571</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="5" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <v>111</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
         <v>13.503649635036499</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="2">
         <v>9.310344827586329</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="2">
         <v>8.9018360363625693</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="2">
         <v>-24.469476974603879</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="2">
         <v>-52952960.719999999</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="2">
         <v>48.441836158415853</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="2">
         <v>2164041.38</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="2">
         <v>17.460779317096069</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="2">
         <v>4.0867240482412817E-2</v>
       </c>
     </row>
@@ -630,38 +637,38 @@
         <v>0.52267200094656208</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+    <row r="8" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="2">
         <v>62</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="2">
         <v>7.5425790754257909</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="2">
         <v>9.8750000000002416</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="2">
         <v>8.991897492529084</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="2">
         <v>-8.8321913675557369</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="2">
         <v>-7521805.6799999997</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="2">
         <v>6.8810142702442203</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="2">
         <v>851635.27</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="2">
         <v>6.8715023869485918</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="2">
         <v>0.1132221844369689</v>
       </c>
     </row>
@@ -777,38 +784,38 @@
         <v>9.6760703613198218E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+    <row r="14" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="2">
         <v>105</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="2">
         <v>12.77372262773723</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="2">
         <v>10.5714285714281</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="2">
         <v>11.81630254342056</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="2">
         <v>-43.9304503547854</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="2">
         <v>-35668770.809543997</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="2">
         <v>36.92263524847116</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="2">
         <v>811937.29</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="2">
         <v>10.81946284666955</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="2">
         <v>2.2763254005454751E-2</v>
       </c>
     </row>
@@ -882,38 +889,38 @@
         <v>0.41126991944997843</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+    <row r="17" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="2">
         <v>41</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="2">
         <v>4.9878345498783458</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="2">
         <v>11</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="2">
         <v>13.01895314524368</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="2">
         <v>-45.940712199025697</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="2">
         <v>-17975132.877723999</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="2">
         <v>18.60701279365141</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="2">
         <v>391268.05</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="2">
         <v>5.2138387806573654</v>
       </c>
-      <c r="K17">
+      <c r="K17" s="2">
         <v>2.1767185403390579E-2</v>
       </c>
     </row>
@@ -1029,38 +1036,38 @@
         <v>4.9285621592973408E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+    <row r="23" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="2">
         <v>105</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="2">
         <v>12.77372262773723</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="2">
         <v>12.142857142856201</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="2">
         <v>9.0835515604968844</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="2">
         <v>-31.79866999433926</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="2">
         <v>-15569758</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="2">
         <v>35.534510217174919</v>
       </c>
-      <c r="I23">
+      <c r="I23" s="2">
         <v>489635.51</v>
       </c>
-      <c r="J23">
+      <c r="J23" s="2">
         <v>19.746419434474841</v>
       </c>
-      <c r="K23">
+      <c r="K23" s="2">
         <v>3.1447856158072593E-2</v>
       </c>
     </row>
@@ -1134,38 +1141,38 @@
         <v>0.1841015939582302</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+    <row r="26" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="2">
         <v>35</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="2">
         <v>4.2579075425790753</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="2">
         <v>12.5000000000028</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="2">
         <v>10.256687029531911</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="2">
         <v>-6.1589676023706286</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="2">
         <v>-564178</v>
       </c>
-      <c r="H26">
+      <c r="H26" s="2">
         <v>1.2876108225513401</v>
       </c>
-      <c r="I26">
+      <c r="I26" s="2">
         <v>91602.69</v>
       </c>
-      <c r="J26">
+      <c r="J26" s="2">
         <v>3.6942278513790279</v>
       </c>
-      <c r="K26">
+      <c r="K26" s="2">
         <v>0.1623648742063675</v>
       </c>
     </row>
@@ -1281,38 +1288,38 @@
         <v>2.212628792052904E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+    <row r="32" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="2">
         <v>98</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="2">
         <v>12.009803921568629</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="2">
         <v>21.380952380955669</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="2">
         <v>30.549245133058541</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="2">
         <v>-94.901301232044474</v>
       </c>
-      <c r="G32">
+      <c r="G32" s="2">
         <v>-214331629.81</v>
       </c>
-      <c r="H32">
+      <c r="H32" s="2">
         <v>54.144809898587788</v>
       </c>
-      <c r="I32">
+      <c r="I32" s="2">
         <v>2258468.8199999998</v>
       </c>
-      <c r="J32">
+      <c r="J32" s="2">
         <v>17.35054673610518</v>
       </c>
-      <c r="K32">
+      <c r="K32" s="2">
         <v>1.053726331480836E-2</v>
       </c>
     </row>
@@ -1386,38 +1393,38 @@
         <v>5.2337362351078998E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
+    <row r="35" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="2">
         <v>87</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="2">
         <v>10.66176470588235</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="2">
         <v>22.24000000000251</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="2">
         <v>29.902657588774421</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="2">
         <v>-3.1424398331957248</v>
       </c>
-      <c r="G35">
+      <c r="G35" s="2">
         <v>-4980594.2699999996</v>
       </c>
-      <c r="H35">
+      <c r="H35" s="2">
         <v>1.258205940813331</v>
       </c>
-      <c r="I35">
+      <c r="I35" s="2">
         <v>1584944.99</v>
       </c>
-      <c r="J35">
+      <c r="J35" s="2">
         <v>12.17624165524267</v>
       </c>
-      <c r="K35">
+      <c r="K35" s="2">
         <v>0.3182240720844744</v>
       </c>
     </row>
